--- a/EcaterinaSm/evidence.xlsx
+++ b/EcaterinaSm/evidence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\0. Ankaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\#0. Ankaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
   <si>
     <t>TxHash</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>66659DD2256B2D59B35272478470BA0A84497744DA563B0C66689CE13A3DECE8</t>
+  </si>
+  <si>
+    <t>ibc/F3E68F181BCB538AE927F2D84CCBBEF22E6CC863334212700061ED17E4C86055</t>
+  </si>
+  <si>
+    <t>nft7</t>
+  </si>
+  <si>
+    <t>ibc/11780DF919026D03EFE2EF4E0BECB146A219D4EB9D666002AE4D0E89112D5AF7</t>
+  </si>
+  <si>
+    <t>nft8</t>
+  </si>
+  <si>
+    <t>ibc/A72602193078C92DDD6D9C34F2E9628585F1729848442C298B16AB6B992CE186</t>
+  </si>
+  <si>
+    <t>nft9</t>
+  </si>
+  <si>
+    <t>ibc/DCAC18E4126E75E78BC86A1325705274C1C1DBB8586B06CB754F565F5F0F7815</t>
+  </si>
+  <si>
+    <t>nft10</t>
   </si>
 </sst>
 </file>
@@ -577,7 +601,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -658,7 +682,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -676,10 +702,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +720,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -712,10 +740,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1608,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1659,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1649,14 +1679,15 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1667,7 +1698,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1685,10 +1718,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/EcaterinaSm/evidence.xlsx
+++ b/EcaterinaSm/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>TxHash</t>
   </si>
@@ -57,27 +57,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -205,13 +190,142 @@
   </si>
   <si>
     <t>nft10</t>
+  </si>
+  <si>
+    <t>ibc/FB1938A188C372C2E605238AEF9791ED6B82F7808A52BEE1CFE9339C0E53DBD5</t>
+  </si>
+  <si>
+    <t>nft11</t>
+  </si>
+  <si>
+    <t>ibc/A6F96C23A1119DE747C7B2703341ACA0156536103A9F95793998DBB82082747C</t>
+  </si>
+  <si>
+    <t>nft12</t>
+  </si>
+  <si>
+    <t>E66AF77FE2EEE1C8C666AAABF48ED26FAC3BB3309B6E39B4A7ACDE9795ADF67A</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>E3C15F3017567A6F76BF7E62D936D0268EF25A52989921AA08D48B3E6B477397</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>741FA61E1DBF16F6E8C2E8776F0384186DEA5B6EA61CF371F34954DBDA29F6AA</t>
+  </si>
+  <si>
+    <t>8B7BE1B4C983856FBF5232EFE87F0A9057E0B10E42B298C48EEF539F8BF143D6</t>
+  </si>
+  <si>
+    <t>2B609B299932493FAE4FD4BADBBC9642CA729DCF042327E208E8B90112ED1442</t>
+  </si>
+  <si>
+    <t>2A98682A5DF34E3866FBEBC749FC199DEC744AD5C276ADC1714B3B38C7064128</t>
+  </si>
+  <si>
+    <t>C624FB5F70D33B6411E44D673B282E516AC2CC308B8C056E9C2374CC92DDE2C0</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>D9F8CA6E47EBC0784682F576A5414A1E43C03E834CD0BA46FAA6801118757D9F</t>
+  </si>
+  <si>
+    <t>56050AFF51373323F62A52A82D00CE192D0EDC2A540FCF003B2AB70CFC39A641</t>
+  </si>
+  <si>
+    <t>FA0920D3C703C257192103E2419E4AA3A430344A99E4941375286B52881F9DA0</t>
+  </si>
+  <si>
+    <t>EAD8B21728FD557091B4DE3B2E70741435AA0EF0CC0D7FDA2A7ED6B4FD99261B</t>
+  </si>
+  <si>
+    <t>63C72E7F6126E45FEFCBF760BB7109B4EADDAE93F1B769A645289A41ACB71579</t>
+  </si>
+  <si>
+    <t>F7300F4380BEA7C3A1319DF7D96D031E381F0B9C8D5C2CBDE9EAB903D0F89F19</t>
+  </si>
+  <si>
+    <t>29B3B4C3E6E4A03916C7DB5FE52263CDFAF12798337B9B6DCD7AA04FC3089FEE</t>
+  </si>
+  <si>
+    <t>A9D1A4D13E060905D3E451A3CF027532A9F32FAFA980BACCCAF1124FE1709E2B</t>
+  </si>
+  <si>
+    <t>9AA6920F7E5238E98C56A0908BD4281FD942F6F46E5EDCA3FD6D9E68415E656F</t>
+  </si>
+  <si>
+    <t>390A1F7F0D29F30C2921C6CAEEEF904514BB038DF15A2C9F2363D0F7CF11C783</t>
+  </si>
+  <si>
+    <t>EFC85DD1B69D6C98597882F0973AF8D52F3A46A9DC9480BCA121CF3B2B22C522</t>
+  </si>
+  <si>
+    <t>4BA4C5EF23B7C425DB44C79B26C7B96B4E6408C44219C26728D483848E0B5009</t>
+  </si>
+  <si>
+    <t>82F0983DAFAB522615A377D6B3BF52CB706D5833525A7A508BFEF408F113CF88</t>
+  </si>
+  <si>
+    <t>AEA7997678A348572BCAC763F68BD9E0204507C6638F63767F03112BD251DC99</t>
+  </si>
+  <si>
+    <t>3CB0F8F377F38CE439E76D364876FB033E12F54253148B75A5195987D547EB11</t>
+  </si>
+  <si>
+    <t>6539DE958007A692282FDCCFB098FFA2181F2F0D4437A840EB264D06C7ED4F91</t>
+  </si>
+  <si>
+    <t>3FDA588B1BB95A8C26080A0EAECE234F8AE15937F06A55134E038D5670B9540D</t>
+  </si>
+  <si>
+    <t>39A0C74DDD8591E2875CDCFF66CA36955E6D2061F16087C0521DE5DD8D3FE00B</t>
+  </si>
+  <si>
+    <t>D1568017FD209C21A6BAE862F2F0B8844236D6BEED45699F424031E983D42384</t>
+  </si>
+  <si>
+    <t>4F1FCBA7C1DE6CE3EE21DF6576E60CD04B223A2334E72CB3F4ED2B6EF37CD30E</t>
+  </si>
+  <si>
+    <t>D3EBCEBD7D6EC6831A3785F6FD437F2219E94D7478673F5A7F1AECBD61EC0247</t>
+  </si>
+  <si>
+    <t>FB1E1D6EFCC35B42927DAB60EBA24E0FB08824C70527A67E1769DD0388E07602</t>
+  </si>
+  <si>
+    <t>CD9FDC5FEC1B1C0943AB6982A9781170C6B856FD89ABC11E582E50B3A29B8420</t>
+  </si>
+  <si>
+    <t>ACAB956F3F2CB1DC0A110C34FE33146460373C4F64A70048DE67088424051EB3</t>
+  </si>
+  <si>
+    <t>C1A5C757654FF90694C15CE7F6F930B16C365346AD31C568F215FD80CC006AC2</t>
+  </si>
+  <si>
+    <t>5E5F5E8E0B439F04448535CC459A836E3C629D1F87F86DF45F95FD3138203751</t>
+  </si>
+  <si>
+    <t>B5CB9C385D1ED505174CB7BB4A024F002FE2E068262228058D9F6A8B38401711</t>
+  </si>
+  <si>
+    <t>6B4F3DFB4A45D65C22F113BBE3FA320955988658DA9EF80F5C3802D33232C76E</t>
+  </si>
+  <si>
+    <t>4831883D1D1611648FD3DD9503D1D3A2786C16E3E804E1A1A1122B3833D4237B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +338,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -278,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -294,6 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -602,7 +724,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,54 +741,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -694,18 +816,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -714,404 +836,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1124,48 +848,127 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
     <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1174,37 +977,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1222,23 +1039,477 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1403,43 +1674,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1470,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1481,16 +1752,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1521,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1532,16 +1803,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1572,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1583,16 +1854,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1624,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1635,16 +1906,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1671,18 +1942,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1710,18 +1981,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
